--- a/bin/config/xlsx/MainScene.xlsx
+++ b/bin/config/xlsx/MainScene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24500" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="MainScene" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -986,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1018,89 +1018,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1108,7 +1028,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1116,7 +1036,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1124,7 +1044,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -1132,7 +1052,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -1140,9 +1060,89 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>16</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B35" t="s">
         <v>5</v>
       </c>
     </row>
